--- a/delivery-optimizer-complete-final/delivery-optimizer/output/entregas_otimizadas_11-02-2026_MATHAUS_CORREIA_DA_SILVA.xlsx
+++ b/delivery-optimizer-complete-final/delivery-optimizer/output/entregas_otimizadas_11-02-2026_MATHAUS_CORREIA_DA_SILVA.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="SEM_BAIRRO" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="cordeiro" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="madalena" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="cordeiro" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="madalena" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="zumbi" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="torre" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="zumbi" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="SEM_BAIRRO" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,134 +429,6 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="12" customWidth="1" min="1" max="1"/>
-    <col width="50" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
-    <col width="13" customWidth="1" min="4" max="4"/>
-    <col width="8" customWidth="1" min="5" max="5"/>
-    <col width="20" customWidth="1" min="6" max="6"/>
-    <col width="17" customWidth="1" min="7" max="7"/>
-    <col width="21" customWidth="1" min="8" max="8"/>
-    <col width="20" customWidth="1" min="9" max="9"/>
-    <col width="50" customWidth="1" min="10" max="10"/>
-    <col width="15" customWidth="1" min="11" max="11"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>ordem_rota</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>endereco</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>numero</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>complemento</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>bairro</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>quantidade_pacotes</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ids_agrupados</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>latitude</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>longitude</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>endereco_formatado</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>geocodificado</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>r doutora amariles barbosa de aguiar, 168, a loja de roupa de joelma, recife, pernambuco, 50610390</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>168</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>AT202602111F7T4</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>-23.54333946553563</v>
-      </c>
-      <c r="I2" t="n">
-        <v>-46.62976809679736</v>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>r doutora amariles barbosa de aguiar, 168, a loja de roupa de joelma, recife, pernambuco, 50610390, 168 - , Sao Paulo, SP</t>
-        </is>
-      </c>
-      <c r="K2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -570,8 +442,8 @@
     <col width="8" customWidth="1" min="3" max="3"/>
     <col width="13" customWidth="1" min="4" max="4"/>
     <col width="10" customWidth="1" min="5" max="5"/>
-    <col width="20" customWidth="1" min="6" max="6"/>
-    <col width="34" customWidth="1" min="7" max="7"/>
+    <col width="34" customWidth="1" min="6" max="6"/>
+    <col width="20" customWidth="1" min="7" max="7"/>
     <col width="21" customWidth="1" min="8" max="8"/>
     <col width="21" customWidth="1" min="9" max="9"/>
     <col width="50" customWidth="1" min="10" max="10"/>
@@ -606,12 +478,12 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>ids_agrupados</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>quantidade_pacotes</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ids_agrupados</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -641,12 +513,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>av caxangá, 1251, marrom glacê</t>
+          <t>av caxangá, 1244, loja de motos arthur motos</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1251</t>
+          <t>1244</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -655,23 +527,23 @@
           <t>cordeiro</t>
         </is>
       </c>
-      <c r="F2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>AT202602111F7T4</t>
-        </is>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>AT202602111F7T4</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>-23.55601167192392</v>
+        <v>-23.55916585529443</v>
       </c>
       <c r="I2" t="n">
-        <v>-46.62391989678061</v>
+        <v>-46.63713585428218</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>av caxangá, 1251, marrom glacê, 1251 - cordeiro, Sao Paulo, SP</t>
+          <t>av caxangá, 1244, loja de motos arthur motos, 1244 - cordeiro, Sao Paulo, SP</t>
         </is>
       </c>
       <c r="K2" t="b">
@@ -684,7 +556,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>r padre antônio fernandes, 80a, 1 andar - patentes</t>
+          <t>r padre antônio fernandes, 80a, de segunda a sexta 10 as 18h</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -698,23 +570,23 @@
           <t>cordeiro</t>
         </is>
       </c>
-      <c r="F3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>AT202602111F7T4</t>
-        </is>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>AT202602111F7T4, AT202602111F7T4</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>2</v>
       </c>
       <c r="H3" t="n">
-        <v>-23.55579649066823</v>
+        <v>-23.55642442539218</v>
       </c>
       <c r="I3" t="n">
-        <v>-46.6354973103629</v>
+        <v>-46.628316057197</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>r padre antônio fernandes, 80a, 1 andar - patentes, 80 - cordeiro, Sao Paulo, SP</t>
+          <t>r padre antônio fernandes, 80a, de segunda a sexta 10 as 18h, 80 - cordeiro, Sao Paulo, SP</t>
         </is>
       </c>
       <c r="K3" t="b">
@@ -741,19 +613,19 @@
           <t>cordeiro</t>
         </is>
       </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>AT202602111F7T4</t>
-        </is>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>AT202602111F7T4</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>-23.55549323345459</v>
+        <v>-23.55590029711536</v>
       </c>
       <c r="I4" t="n">
-        <v>-46.63691469461415</v>
+        <v>-46.63186172531458</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -770,12 +642,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>av caxangá, 1388, ap 303 bloco a</t>
+          <t>r padre antônio fernandes, 80a, 1 andar - patentes</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1388</t>
+          <t>80</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
@@ -784,23 +656,23 @@
           <t>cordeiro</t>
         </is>
       </c>
-      <c r="F5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>AT202602111F7T4</t>
-        </is>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>AT202602111F7T4</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>-23.55487340276138</v>
+        <v>-23.55580185552381</v>
       </c>
       <c r="I5" t="n">
-        <v>-46.63707951725238</v>
+        <v>-46.63448389178148</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>av caxangá, 1388, ap 303 bloco a, 1388 - cordeiro, Sao Paulo, SP</t>
+          <t>r padre antônio fernandes, 80a, 1 andar - patentes, 80 - cordeiro, Sao Paulo, SP</t>
         </is>
       </c>
       <c r="K5" t="b">
@@ -813,12 +685,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>av caxangá, 1244, loja de motos arthur motos</t>
+          <t>r honório correia, 76, loja 2</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1244</t>
+          <t>76</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
@@ -827,23 +699,23 @@
           <t>cordeiro</t>
         </is>
       </c>
-      <c r="F6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>AT202602111F7T4</t>
-        </is>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>AT202602111F7T4, AT202602111F7T4</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>2</v>
       </c>
       <c r="H6" t="n">
-        <v>-23.55226288603939</v>
+        <v>-23.5550709548677</v>
       </c>
       <c r="I6" t="n">
-        <v>-46.62837734283472</v>
+        <v>-46.63055961562782</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>av caxangá, 1244, loja de motos arthur motos, 1244 - cordeiro, Sao Paulo, SP</t>
+          <t>r honório correia, 76, loja 2, 76 - cordeiro, Sao Paulo, SP</t>
         </is>
       </c>
       <c r="K6" t="b">
@@ -856,12 +728,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>r padre antônio fernandes, 66, apartamento 201</t>
+          <t>av caxangá, 1251, marrom glacê</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>1251</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
@@ -870,23 +742,23 @@
           <t>cordeiro</t>
         </is>
       </c>
-      <c r="F7" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>AT202602111F7T4</t>
-        </is>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>AT202602111F7T4</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>-23.5517995541001</v>
+        <v>-23.55306004775256</v>
       </c>
       <c r="I7" t="n">
-        <v>-46.6238326895991</v>
+        <v>-46.63449370129838</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>r padre antônio fernandes, 66, apartamento 201, 66 - cordeiro, Sao Paulo, SP</t>
+          <t>av caxangá, 1251, marrom glacê, 1251 - cordeiro, Sao Paulo, SP</t>
         </is>
       </c>
       <c r="K7" t="b">
@@ -899,12 +771,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>r honório correia, 76, loja 2</t>
+          <t>av caxangá, 1388, ap 303 bloco a</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>1388</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
@@ -913,23 +785,23 @@
           <t>cordeiro</t>
         </is>
       </c>
-      <c r="F8" t="n">
-        <v>2</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>AT202602111F7T4, AT202602111F7T4</t>
-        </is>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>AT202602111F7T4</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>-23.5511370944929</v>
+        <v>-23.54899319818487</v>
       </c>
       <c r="I8" t="n">
-        <v>-46.64224199623195</v>
+        <v>-46.62927326769583</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>r honório correia, 76, loja 2, 76 - cordeiro, Sao Paulo, SP</t>
+          <t>av caxangá, 1388, ap 303 bloco a, 1388 - cordeiro, Sao Paulo, SP</t>
         </is>
       </c>
       <c r="K8" t="b">
@@ -942,12 +814,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>av caxangá, 1335, autoparvi caxanga</t>
+          <t>r padre antônio fernandes, 66, apartamento 201</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1335</t>
+          <t>66</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
@@ -956,23 +828,23 @@
           <t>cordeiro</t>
         </is>
       </c>
-      <c r="F9" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>AT202602111F7T4</t>
-        </is>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>AT202602111F7T4</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>-23.54840442025723</v>
+        <v>-23.54868797333376</v>
       </c>
       <c r="I9" t="n">
-        <v>-46.63702024342908</v>
+        <v>-46.63312858610009</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>av caxangá, 1335, autoparvi caxanga, 1335 - cordeiro, Sao Paulo, SP</t>
+          <t>r padre antônio fernandes, 66, apartamento 201, 66 - cordeiro, Sao Paulo, SP</t>
         </is>
       </c>
       <c r="K9" t="b">
@@ -985,12 +857,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>r padre antônio fernandes, 80a, de segunda a sexta 10 as 18h</t>
+          <t>av caxangá, 1335, autoparvi caxanga</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>1335</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
@@ -999,23 +871,23 @@
           <t>cordeiro</t>
         </is>
       </c>
-      <c r="F10" t="n">
-        <v>2</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>AT202602111F7T4, AT202602111F7T4</t>
-        </is>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>AT202602111F7T4</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>-23.54297579285934</v>
+        <v>-23.54386488937295</v>
       </c>
       <c r="I10" t="n">
-        <v>-46.62360207297142</v>
+        <v>-46.63938330392147</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>r padre antônio fernandes, 80a, de segunda a sexta 10 as 18h, 80 - cordeiro, Sao Paulo, SP</t>
+          <t>av caxangá, 1335, autoparvi caxanga, 1335 - cordeiro, Sao Paulo, SP</t>
         </is>
       </c>
       <c r="K10" t="b">
@@ -1027,7 +899,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1046,8 +918,8 @@
     <col width="8" customWidth="1" min="3" max="3"/>
     <col width="13" customWidth="1" min="4" max="4"/>
     <col width="10" customWidth="1" min="5" max="5"/>
-    <col width="20" customWidth="1" min="6" max="6"/>
-    <col width="50" customWidth="1" min="7" max="7"/>
+    <col width="50" customWidth="1" min="6" max="6"/>
+    <col width="20" customWidth="1" min="7" max="7"/>
     <col width="21" customWidth="1" min="8" max="8"/>
     <col width="21" customWidth="1" min="9" max="9"/>
     <col width="50" customWidth="1" min="10" max="10"/>
@@ -1082,12 +954,12 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>ids_agrupados</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>quantidade_pacotes</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ids_agrupados</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1117,12 +989,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>r visconde do uruguai, 535</t>
+          <t>r dom manoel da costa, 405, bloco b</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>535</t>
+          <t>405</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -1131,23 +1003,23 @@
           <t>madalena</t>
         </is>
       </c>
-      <c r="F2" t="n">
-        <v>2</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>AT202602111F7T4, AT202602111F7T4</t>
-        </is>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>AT202602111F7T4</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>-23.56033105324244</v>
+        <v>-23.55901726019946</v>
       </c>
       <c r="I2" t="n">
-        <v>-46.63127356438062</v>
+        <v>-46.63434405535921</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>r visconde do uruguai, 535, 535 - madalena, Sao Paulo, SP</t>
+          <t>r dom manoel da costa, 405, bloco b, 405 - madalena, Sao Paulo, SP</t>
         </is>
       </c>
       <c r="K2" t="b">
@@ -1160,12 +1032,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>r padre landim, 292, edf. maria faria apto 904 -b</t>
+          <t>r padre landim, 312, apto 1003</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>292</t>
+          <t>312</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -1174,23 +1046,23 @@
           <t>madalena</t>
         </is>
       </c>
-      <c r="F3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>AT202602111F7T4</t>
-        </is>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>AT202602111F7T4</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>-23.56029008781906</v>
+        <v>-23.55816108721005</v>
       </c>
       <c r="I3" t="n">
-        <v>-46.62528869591472</v>
+        <v>-46.62379971453247</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>r padre landim, 292, edf. maria faria apto 904 -b, 292 - madalena, Sao Paulo, SP</t>
+          <t>r padre landim, 312, apto 1003, 312 - madalena, Sao Paulo, SP</t>
         </is>
       </c>
       <c r="K3" t="b">
@@ -1203,12 +1075,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>av caxangá, 853, fm veículos</t>
+          <t>r fagundes varela, 68</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>853</t>
+          <t>68</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -1217,23 +1089,23 @@
           <t>madalena</t>
         </is>
       </c>
-      <c r="F4" t="n">
-        <v>2</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>AT202602111F7T4, AT202602111F7T4</t>
-        </is>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>AT202602111F7T4</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>-23.56008478875327</v>
+        <v>-23.55775535210092</v>
       </c>
       <c r="I4" t="n">
-        <v>-46.63759755155854</v>
+        <v>-46.62600880267284</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>av caxangá, 853, fm veículos, 853 - madalena, Sao Paulo, SP</t>
+          <t>r fagundes varela, 68, 68 - madalena, Sao Paulo, SP</t>
         </is>
       </c>
       <c r="K4" t="b">
@@ -1246,12 +1118,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>r canguaretama, 39</t>
+          <t>r dos aliados, 281, em frente a barraca de jorge</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>281</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
@@ -1260,23 +1132,23 @@
           <t>madalena</t>
         </is>
       </c>
-      <c r="F5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>AT202602111F7T4</t>
-        </is>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>AT202602111F7T4</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>-23.55963294344668</v>
+        <v>-23.55642277236726</v>
       </c>
       <c r="I5" t="n">
-        <v>-46.6350942975976</v>
+        <v>-46.6387091233709</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>r canguaretama, 39, 39 - madalena, Sao Paulo, SP</t>
+          <t>r dos aliados, 281, em frente a barraca de jorge, 281 - madalena, Sao Paulo, SP</t>
         </is>
       </c>
       <c r="K5" t="b">
@@ -1289,12 +1161,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>r divinópolis, 60, casa</t>
+          <t>r dom manoel da costa, 125, apartamento 1504</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>125</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
@@ -1303,23 +1175,23 @@
           <t>madalena</t>
         </is>
       </c>
-      <c r="F6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>AT202602111F7T4</t>
-        </is>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>AT202602111F7T4</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>-23.55946538217599</v>
+        <v>-23.55588656824663</v>
       </c>
       <c r="I6" t="n">
-        <v>-46.64323721045032</v>
+        <v>-46.63990614248205</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>r divinópolis, 60, casa, 60 - madalena, Sao Paulo, SP</t>
+          <t>r dom manoel da costa, 125, apartamento 1504, 125 - madalena, Sao Paulo, SP</t>
         </is>
       </c>
       <c r="K6" t="b">
@@ -1332,12 +1204,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>r manoel bernardes, 282, apto 201</t>
+          <t>r padre landim, 292, apto 102</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>282</t>
+          <t>292</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
@@ -1346,23 +1218,23 @@
           <t>madalena</t>
         </is>
       </c>
-      <c r="F7" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>AT202602111F7T4</t>
-        </is>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>AT202602111F7T4</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>-23.55912882444674</v>
+        <v>-23.55541237610176</v>
       </c>
       <c r="I7" t="n">
-        <v>-46.64149479677368</v>
+        <v>-46.63643404304383</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>r manoel bernardes, 282, apto 201, 282 - madalena, Sao Paulo, SP</t>
+          <t>r padre landim, 292, apto 102, 292 - madalena, Sao Paulo, SP</t>
         </is>
       </c>
       <c r="K7" t="b">
@@ -1375,12 +1247,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>r henry koster, 37, casa</t>
+          <t>r caratinga, 105, apto 03</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>105</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
@@ -1389,23 +1261,23 @@
           <t>madalena</t>
         </is>
       </c>
-      <c r="F8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>AT202602111F7T4</t>
-        </is>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>AT202602111F7T4</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>-23.55897881883142</v>
+        <v>-23.55487828667347</v>
       </c>
       <c r="I8" t="n">
-        <v>-46.63749148925183</v>
+        <v>-46.62424931287313</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>r henry koster, 37, casa, 37 - madalena, Sao Paulo, SP</t>
+          <t>r caratinga, 105, apto 03, 105 - madalena, Sao Paulo, SP</t>
         </is>
       </c>
       <c r="K8" t="b">
@@ -1418,12 +1290,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>r dos aliados, 281, em frente a barraca de jorge</t>
+          <t>r dom manoel da costa, 125, apt 1204 vitória</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>125</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
@@ -1432,23 +1304,23 @@
           <t>madalena</t>
         </is>
       </c>
-      <c r="F9" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>AT202602111F7T4</t>
-        </is>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>AT202602111F7T4, AT202602111F7T4</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>2</v>
       </c>
       <c r="H9" t="n">
-        <v>-23.55891252869094</v>
+        <v>-23.55475766412836</v>
       </c>
       <c r="I9" t="n">
-        <v>-46.63084797679401</v>
+        <v>-46.63978890796729</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>r dos aliados, 281, em frente a barraca de jorge, 281 - madalena, Sao Paulo, SP</t>
+          <t>r dom manoel da costa, 125, apt 1204 vitória, 125 - madalena, Sao Paulo, SP</t>
         </is>
       </c>
       <c r="K9" t="b">
@@ -1461,12 +1333,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>r graciliano cardoso, 56, ao lado de luis da coxinha</t>
+          <t>r estácio de sá, 49f</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>49</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
@@ -1475,23 +1347,23 @@
           <t>madalena</t>
         </is>
       </c>
-      <c r="F10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>AT202602111F7T4</t>
-        </is>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>AT202602111F7T4</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>-23.55885873816613</v>
+        <v>-23.55463423623916</v>
       </c>
       <c r="I10" t="n">
-        <v>-46.64022320543805</v>
+        <v>-46.62342377343072</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>r graciliano cardoso, 56, ao lado de luis da coxinha, 56 - madalena, Sao Paulo, SP</t>
+          <t>r estácio de sá, 49f, 49 - madalena, Sao Paulo, SP</t>
         </is>
       </c>
       <c r="K10" t="b">
@@ -1518,19 +1390,19 @@
           <t>madalena</t>
         </is>
       </c>
-      <c r="F11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>AT202602111F7T4</t>
-        </is>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>AT202602111F7T4</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>-23.55861127521277</v>
+        <v>-23.55459722175296</v>
       </c>
       <c r="I11" t="n">
-        <v>-46.63731078934002</v>
+        <v>-46.63343264144729</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1547,12 +1419,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>r graciliano cardoso, 47, luiz da coxinha</t>
+          <t>r dos aliados, 163, casa</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>163</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
@@ -1561,23 +1433,23 @@
           <t>madalena</t>
         </is>
       </c>
-      <c r="F12" t="n">
-        <v>1</v>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>AT202602111F7T4</t>
-        </is>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>AT202602111F7T4</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>-23.55855875856775</v>
+        <v>-23.55453436849218</v>
       </c>
       <c r="I12" t="n">
-        <v>-46.6296719501708</v>
+        <v>-46.63835797190996</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>r graciliano cardoso, 47, luiz da coxinha, 47 - madalena, Sao Paulo, SP</t>
+          <t>r dos aliados, 163, casa, 163 - madalena, Sao Paulo, SP</t>
         </is>
       </c>
       <c r="K12" t="b">
@@ -1590,12 +1462,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>r manoel bernardes, 282, apto 2801 - mad. family class</t>
+          <t>r dom manoel da costa, 191, ed. d.manoel da costa ap 102a</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>282</t>
+          <t>191</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
@@ -1604,23 +1476,23 @@
           <t>madalena</t>
         </is>
       </c>
-      <c r="F13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>AT202602111F7T4</t>
-        </is>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>AT202602111F7T4</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>-23.55777791638969</v>
+        <v>-23.55450616319364</v>
       </c>
       <c r="I13" t="n">
-        <v>-46.64173288713597</v>
+        <v>-46.62827267154734</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>r manoel bernardes, 282, apto 2801 - mad. family class, 282 - madalena, Sao Paulo, SP</t>
+          <t>r dom manoel da costa, 191, ed. d.manoel da costa ap 102a, 191 - madalena, Sao Paulo, SP</t>
         </is>
       </c>
       <c r="K13" t="b">
@@ -1633,12 +1505,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>r visconde do uruguai, 441</t>
+          <t>r visconde do uruguai, 84, casa térreo</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>441</t>
+          <t>84</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
@@ -1647,23 +1519,23 @@
           <t>madalena</t>
         </is>
       </c>
-      <c r="F14" t="n">
-        <v>1</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>AT202602111F7T4</t>
-        </is>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>AT202602111F7T4</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>-23.55711151925781</v>
+        <v>-23.55429623558855</v>
       </c>
       <c r="I14" t="n">
-        <v>-46.62702531318551</v>
+        <v>-46.63653663628516</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>r visconde do uruguai, 441, 441 - madalena, Sao Paulo, SP</t>
+          <t>r visconde do uruguai, 84, casa térreo, 84 - madalena, Sao Paulo, SP</t>
         </is>
       </c>
       <c r="K14" t="b">
@@ -1676,12 +1548,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>r padre landim, 312, apto 1003</t>
+          <t>r henry koster, 40, rua em frente a gráfica rio</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
@@ -1690,23 +1562,23 @@
           <t>madalena</t>
         </is>
       </c>
-      <c r="F15" t="n">
-        <v>1</v>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>AT202602111F7T4</t>
-        </is>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>AT202602111F7T4</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>-23.55693389515926</v>
+        <v>-23.55350448416801</v>
       </c>
       <c r="I15" t="n">
-        <v>-46.63643637109703</v>
+        <v>-46.63051031312247</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>r padre landim, 312, apto 1003, 312 - madalena, Sao Paulo, SP</t>
+          <t>r henry koster, 40, rua em frente a gráfica rio, 40 - madalena, Sao Paulo, SP</t>
         </is>
       </c>
       <c r="K15" t="b">
@@ -1719,12 +1591,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>r padre landim, 302, apt 804</t>
+          <t>r manoel bernardes, 320, bloco c casa 3 interfonar 3</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>302</t>
+          <t>320</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
@@ -1733,23 +1605,23 @@
           <t>madalena</t>
         </is>
       </c>
-      <c r="F16" t="n">
-        <v>1</v>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>AT202602111F7T4</t>
-        </is>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>AT202602111F7T4</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>-23.55691820797013</v>
+        <v>-23.55324479025552</v>
       </c>
       <c r="I16" t="n">
-        <v>-46.62898070475279</v>
+        <v>-46.6262041837723</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>r padre landim, 302, apt 804, 302 - madalena, Sao Paulo, SP</t>
+          <t>r manoel bernardes, 320, bloco c casa 3 interfonar 3, 320 - madalena, Sao Paulo, SP</t>
         </is>
       </c>
       <c r="K16" t="b">
@@ -1762,12 +1634,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>r melindrosas, 71</t>
+          <t>av caxangá, 853, fm veículos</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>853</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
@@ -1776,23 +1648,23 @@
           <t>madalena</t>
         </is>
       </c>
-      <c r="F17" t="n">
-        <v>1</v>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>AT202602111F7T4</t>
-        </is>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>AT202602111F7T4, AT202602111F7T4</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>2</v>
       </c>
       <c r="H17" t="n">
-        <v>-23.55589964016693</v>
+        <v>-23.55322834168661</v>
       </c>
       <c r="I17" t="n">
-        <v>-46.63772967241752</v>
+        <v>-46.63370650650048</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>r melindrosas, 71, 71 - madalena, Sao Paulo, SP</t>
+          <t>av caxangá, 853, fm veículos, 853 - madalena, Sao Paulo, SP</t>
         </is>
       </c>
       <c r="K17" t="b">
@@ -1805,12 +1677,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>r graciliano cardoso, 40</t>
+          <t>r dos aliados, 208, ao lado da barraca d seu jorge</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>208</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
@@ -1819,23 +1691,23 @@
           <t>madalena</t>
         </is>
       </c>
-      <c r="F18" t="n">
-        <v>1</v>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>AT202602111F7T4</t>
-        </is>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>AT202602111F7T4</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>-23.55556471415479</v>
+        <v>-23.55249198869188</v>
       </c>
       <c r="I18" t="n">
-        <v>-46.63706981136211</v>
+        <v>-46.64202481271992</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>r graciliano cardoso, 40, 40 - madalena, Sao Paulo, SP</t>
+          <t>r dos aliados, 208, ao lado da barraca d seu jorge, 208 - madalena, Sao Paulo, SP</t>
         </is>
       </c>
       <c r="K18" t="b">
@@ -1848,12 +1720,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>r dom manoel da costa, 281, casa de esquina</t>
+          <t>r manoel bernardes, 282, apto 2801 - mad. family class</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>282</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
@@ -1862,23 +1734,23 @@
           <t>madalena</t>
         </is>
       </c>
-      <c r="F19" t="n">
-        <v>1</v>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>AT202602111F7T4</t>
-        </is>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>AT202602111F7T4</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>-23.55553792010279</v>
+        <v>-23.55095010280492</v>
       </c>
       <c r="I19" t="n">
-        <v>-46.63989018118755</v>
+        <v>-46.63981843820447</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>r dom manoel da costa, 281, casa de esquina, 281 - madalena, Sao Paulo, SP</t>
+          <t>r manoel bernardes, 282, apto 2801 - mad. family class, 282 - madalena, Sao Paulo, SP</t>
         </is>
       </c>
       <c r="K19" t="b">
@@ -1891,12 +1763,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>r dos aliados, 208, ao lado da barraca d seu jorge</t>
+          <t>r jaguaribe, 207, mercearia são jorge</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>207</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
@@ -1905,23 +1777,23 @@
           <t>madalena</t>
         </is>
       </c>
-      <c r="F20" t="n">
-        <v>1</v>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>AT202602111F7T4</t>
-        </is>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>AT202602111F7T4</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>-23.55542384972752</v>
+        <v>-23.55059101383041</v>
       </c>
       <c r="I20" t="n">
-        <v>-46.64117065747494</v>
+        <v>-46.63236167207138</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>r dos aliados, 208, ao lado da barraca d seu jorge, 208 - madalena, Sao Paulo, SP</t>
+          <t>r jaguaribe, 207, mercearia são jorge, 207 - madalena, Sao Paulo, SP</t>
         </is>
       </c>
       <c r="K20" t="b">
@@ -1934,12 +1806,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>r dom manoel da costa, 405, apt403 bloco b</t>
+          <t>r manoel bernardes, 282, apt. 501</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>405</t>
+          <t>282</t>
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
@@ -1948,23 +1820,23 @@
           <t>madalena</t>
         </is>
       </c>
-      <c r="F21" t="n">
-        <v>1</v>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>AT202602111F7T4</t>
-        </is>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>AT202602111F7T4</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>-23.55517135012125</v>
+        <v>-23.55009975348623</v>
       </c>
       <c r="I21" t="n">
-        <v>-46.62952690790114</v>
+        <v>-46.64100904045521</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>r dom manoel da costa, 405, apt403 bloco b, 405 - madalena, Sao Paulo, SP</t>
+          <t>r manoel bernardes, 282, apt. 501, 282 - madalena, Sao Paulo, SP</t>
         </is>
       </c>
       <c r="K21" t="b">
@@ -1977,12 +1849,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>r canguaretama, 63</t>
+          <t>r estácio de sá, 54, casa proximo a padaria</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>54</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
@@ -1991,23 +1863,23 @@
           <t>madalena</t>
         </is>
       </c>
-      <c r="F22" t="n">
-        <v>3</v>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>AT202602111F7T4, AT202602111F7T4, AT202602111F7T4</t>
-        </is>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>AT202602111F7T4</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>-23.55446754469889</v>
+        <v>-23.54935296404232</v>
       </c>
       <c r="I22" t="n">
-        <v>-46.63655225307749</v>
+        <v>-46.63537341949358</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>r canguaretama, 63, 63 - madalena, Sao Paulo, SP</t>
+          <t>r estácio de sá, 54, casa proximo a padaria, 54 - madalena, Sao Paulo, SP</t>
         </is>
       </c>
       <c r="K22" t="b">
@@ -2020,12 +1892,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>r padre landim, 312, apartamento 804</t>
+          <t>r santo andré, 99</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>99</t>
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
@@ -2034,23 +1906,23 @@
           <t>madalena</t>
         </is>
       </c>
-      <c r="F23" t="n">
-        <v>1</v>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>AT202602111F7T4</t>
-        </is>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>AT202602111F7T4, AT202602111F7T4</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>2</v>
       </c>
       <c r="H23" t="n">
-        <v>-23.5543905407015</v>
+        <v>-23.54933123317441</v>
       </c>
       <c r="I23" t="n">
-        <v>-46.6302805607872</v>
+        <v>-46.64046893195673</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>r padre landim, 312, apartamento 804, 312 - madalena, Sao Paulo, SP</t>
+          <t>r santo andré, 99, 99 - madalena, Sao Paulo, SP</t>
         </is>
       </c>
       <c r="K23" t="b">
@@ -2063,12 +1935,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>r estácio de sá, 49f</t>
+          <t>r divinópolis, 60, casa</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>60</t>
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
@@ -2077,23 +1949,23 @@
           <t>madalena</t>
         </is>
       </c>
-      <c r="F24" t="n">
-        <v>1</v>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>AT202602111F7T4</t>
-        </is>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>AT202602111F7T4</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>-23.55405588903023</v>
+        <v>-23.54915934797793</v>
       </c>
       <c r="I24" t="n">
-        <v>-46.62352355573977</v>
+        <v>-46.63300019923553</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>r estácio de sá, 49f, 49 - madalena, Sao Paulo, SP</t>
+          <t>r divinópolis, 60, casa, 60 - madalena, Sao Paulo, SP</t>
         </is>
       </c>
       <c r="K24" t="b">
@@ -2106,12 +1978,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>r dom manoel da costa, 405, blocoa apto 402</t>
+          <t>r graciliano cardoso, 47, luiz da coxinha</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>405</t>
+          <t>47</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
@@ -2120,23 +1992,23 @@
           <t>madalena</t>
         </is>
       </c>
-      <c r="F25" t="n">
-        <v>1</v>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>AT202602111F7T4</t>
-        </is>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>AT202602111F7T4</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>-23.55389410116732</v>
+        <v>-23.54897547191135</v>
       </c>
       <c r="I25" t="n">
-        <v>-46.64044515671566</v>
+        <v>-46.63805308434988</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>r dom manoel da costa, 405, blocoa apto 402, 405 - madalena, Sao Paulo, SP</t>
+          <t>r graciliano cardoso, 47, luiz da coxinha, 47 - madalena, Sao Paulo, SP</t>
         </is>
       </c>
       <c r="K25" t="b">
@@ -2149,12 +2021,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>r caratinga, 169</t>
+          <t>r do brazão, 170</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>170</t>
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
@@ -2163,23 +2035,23 @@
           <t>madalena</t>
         </is>
       </c>
-      <c r="F26" t="n">
-        <v>1</v>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>AT202602111F7T4</t>
-        </is>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>AT202602111F7T4</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>-23.55326897223589</v>
+        <v>-23.54873776596117</v>
       </c>
       <c r="I26" t="n">
-        <v>-46.64083349474409</v>
+        <v>-46.63934236427269</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>r caratinga, 169, 169 - madalena, Sao Paulo, SP</t>
+          <t>r do brazão, 170, 170 - madalena, Sao Paulo, SP</t>
         </is>
       </c>
       <c r="K26" t="b">
@@ -2192,12 +2064,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>r santo andré, 99</t>
+          <t>r campos sales, 122, casa</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>122</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
@@ -2206,23 +2078,23 @@
           <t>madalena</t>
         </is>
       </c>
-      <c r="F27" t="n">
-        <v>2</v>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>AT202602111F7T4, AT202602111F7T4</t>
-        </is>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>AT202602111F7T4</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>-23.55279736879386</v>
+        <v>-23.54826168885092</v>
       </c>
       <c r="I27" t="n">
-        <v>-46.62732615780376</v>
+        <v>-46.63763180532057</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>r santo andré, 99, 99 - madalena, Sao Paulo, SP</t>
+          <t>r campos sales, 122, casa, 122 - madalena, Sao Paulo, SP</t>
         </is>
       </c>
       <c r="K27" t="b">
@@ -2235,12 +2107,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>r fagundes varela, 68</t>
+          <t>r melindrosas, 71</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>71</t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
@@ -2249,23 +2121,23 @@
           <t>madalena</t>
         </is>
       </c>
-      <c r="F28" t="n">
-        <v>1</v>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>AT202602111F7T4</t>
-        </is>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>AT202602111F7T4</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>-23.5525707585683</v>
+        <v>-23.54779478666135</v>
       </c>
       <c r="I28" t="n">
-        <v>-46.62348817170543</v>
+        <v>-46.63797193439114</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>r fagundes varela, 68, 68 - madalena, Sao Paulo, SP</t>
+          <t>r melindrosas, 71, 71 - madalena, Sao Paulo, SP</t>
         </is>
       </c>
       <c r="K28" t="b">
@@ -2278,7 +2150,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>r manoel bernardes, 282, apto 2603</t>
+          <t>r manoel bernardes, 282, apto 201</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -2292,23 +2164,23 @@
           <t>madalena</t>
         </is>
       </c>
-      <c r="F29" t="n">
-        <v>1</v>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>AT202602111F7T4</t>
-        </is>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>AT202602111F7T4</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>-23.55224931341794</v>
+        <v>-23.54687745640054</v>
       </c>
       <c r="I29" t="n">
-        <v>-46.64222055772711</v>
+        <v>-46.63284411417877</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>r manoel bernardes, 282, apto 2603, 282 - madalena, Sao Paulo, SP</t>
+          <t>r manoel bernardes, 282, apto 201, 282 - madalena, Sao Paulo, SP</t>
         </is>
       </c>
       <c r="K29" t="b">
@@ -2321,12 +2193,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>r campos sales, 122, casa</t>
+          <t>r severino pessoa, 419</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>419</t>
         </is>
       </c>
       <c r="D30" t="inlineStr"/>
@@ -2335,23 +2207,23 @@
           <t>madalena</t>
         </is>
       </c>
-      <c r="F30" t="n">
-        <v>1</v>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>AT202602111F7T4</t>
-        </is>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>AT202602111F7T4</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>-23.55166830834433</v>
+        <v>-23.54665165076556</v>
       </c>
       <c r="I30" t="n">
-        <v>-46.63860005050308</v>
+        <v>-46.62401037611829</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>r campos sales, 122, casa, 122 - madalena, Sao Paulo, SP</t>
+          <t>r severino pessoa, 419, 419 - madalena, Sao Paulo, SP</t>
         </is>
       </c>
       <c r="K30" t="b">
@@ -2364,12 +2236,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>r jaguaribe, 207, mercearia são jorge</t>
+          <t>r dom manoel da costa, 281, casa de esquina</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>281</t>
         </is>
       </c>
       <c r="D31" t="inlineStr"/>
@@ -2378,23 +2250,23 @@
           <t>madalena</t>
         </is>
       </c>
-      <c r="F31" t="n">
-        <v>1</v>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>AT202602111F7T4</t>
-        </is>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>AT202602111F7T4</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>-23.55124577777383</v>
+        <v>-23.546483736124</v>
       </c>
       <c r="I31" t="n">
-        <v>-46.6258656679885</v>
+        <v>-46.62727786987831</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>r jaguaribe, 207, mercearia são jorge, 207 - madalena, Sao Paulo, SP</t>
+          <t>r dom manoel da costa, 281, casa de esquina, 281 - madalena, Sao Paulo, SP</t>
         </is>
       </c>
       <c r="K31" t="b">
@@ -2407,12 +2279,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>r dom manoel da costa, 125, apartamento 1504</t>
+          <t>r padre landim, 312, apartamento 804</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>312</t>
         </is>
       </c>
       <c r="D32" t="inlineStr"/>
@@ -2421,23 +2293,23 @@
           <t>madalena</t>
         </is>
       </c>
-      <c r="F32" t="n">
-        <v>1</v>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>AT202602111F7T4</t>
-        </is>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>AT202602111F7T4</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>1</v>
       </c>
       <c r="H32" t="n">
-        <v>-23.55031264500511</v>
+        <v>-23.54633274168489</v>
       </c>
       <c r="I32" t="n">
-        <v>-46.62816403163776</v>
+        <v>-46.62577036457428</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>r dom manoel da costa, 125, apartamento 1504, 125 - madalena, Sao Paulo, SP</t>
+          <t>r padre landim, 312, apartamento 804, 312 - madalena, Sao Paulo, SP</t>
         </is>
       </c>
       <c r="K32" t="b">
@@ -2450,12 +2322,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>r dom manoel da costa, 191, ed. d.manoel da costa ap 102a</t>
+          <t>r manoel bernardes, 282, apto 702</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>282</t>
         </is>
       </c>
       <c r="D33" t="inlineStr"/>
@@ -2464,23 +2336,23 @@
           <t>madalena</t>
         </is>
       </c>
-      <c r="F33" t="n">
-        <v>1</v>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>AT202602111F7T4</t>
-        </is>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>AT202602111F7T4</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>-23.55017235196833</v>
+        <v>-23.54593790018378</v>
       </c>
       <c r="I33" t="n">
-        <v>-46.64215818323225</v>
+        <v>-46.64117081328651</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>r dom manoel da costa, 191, ed. d.manoel da costa ap 102a, 191 - madalena, Sao Paulo, SP</t>
+          <t>r manoel bernardes, 282, apto 702, 282 - madalena, Sao Paulo, SP</t>
         </is>
       </c>
       <c r="K33" t="b">
@@ -2493,12 +2365,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>r dom manoel da costa, 321, apto 1101</t>
+          <t>r canguaretama, 63</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>63</t>
         </is>
       </c>
       <c r="D34" t="inlineStr"/>
@@ -2507,23 +2379,23 @@
           <t>madalena</t>
         </is>
       </c>
-      <c r="F34" t="n">
-        <v>1</v>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>AT202602111F7T4</t>
-        </is>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>AT202602111F7T4, AT202602111F7T4, AT202602111F7T4</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>3</v>
       </c>
       <c r="H34" t="n">
-        <v>-23.54981529822442</v>
+        <v>-23.54567520369044</v>
       </c>
       <c r="I34" t="n">
-        <v>-46.6312020780323</v>
+        <v>-46.63689325200091</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>r dom manoel da costa, 321, apto 1101, 321 - madalena, Sao Paulo, SP</t>
+          <t>r canguaretama, 63, 63 - madalena, Sao Paulo, SP</t>
         </is>
       </c>
       <c r="K34" t="b">
@@ -2536,12 +2408,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>r dos aliados, 163, casa</t>
+          <t>r visconde do uruguai, 535</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>535</t>
         </is>
       </c>
       <c r="D35" t="inlineStr"/>
@@ -2550,23 +2422,23 @@
           <t>madalena</t>
         </is>
       </c>
-      <c r="F35" t="n">
-        <v>1</v>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>AT202602111F7T4</t>
-        </is>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>AT202602111F7T4, AT202602111F7T4</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>2</v>
       </c>
       <c r="H35" t="n">
-        <v>-23.54949369197353</v>
+        <v>-23.54525744960816</v>
       </c>
       <c r="I35" t="n">
-        <v>-46.63314954821271</v>
+        <v>-46.62832973376469</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>r dos aliados, 163, casa, 163 - madalena, Sao Paulo, SP</t>
+          <t>r visconde do uruguai, 535, 535 - madalena, Sao Paulo, SP</t>
         </is>
       </c>
       <c r="K35" t="b">
@@ -2579,7 +2451,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>r manoel bernardes, 282, apto 702</t>
+          <t>r manoel bernardes, 282, apto 2603</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2593,23 +2465,23 @@
           <t>madalena</t>
         </is>
       </c>
-      <c r="F36" t="n">
-        <v>1</v>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>AT202602111F7T4</t>
-        </is>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>AT202602111F7T4</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>-23.54937144850613</v>
+        <v>-23.5452067817914</v>
       </c>
       <c r="I36" t="n">
-        <v>-46.6235127513532</v>
+        <v>-46.6247523410981</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>r manoel bernardes, 282, apto 702, 282 - madalena, Sao Paulo, SP</t>
+          <t>r manoel bernardes, 282, apto 2603, 282 - madalena, Sao Paulo, SP</t>
         </is>
       </c>
       <c r="K36" t="b">
@@ -2622,12 +2494,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>r severino pessoa, 419</t>
+          <t>r campos sales, 401</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>419</t>
+          <t>401</t>
         </is>
       </c>
       <c r="D37" t="inlineStr"/>
@@ -2636,23 +2508,23 @@
           <t>madalena</t>
         </is>
       </c>
-      <c r="F37" t="n">
-        <v>1</v>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>AT202602111F7T4</t>
-        </is>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>AT202602111F7T4</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>-23.54869165996226</v>
+        <v>-23.5451627436531</v>
       </c>
       <c r="I37" t="n">
-        <v>-46.63201599902943</v>
+        <v>-46.64307846047117</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>r severino pessoa, 419, 419 - madalena, Sao Paulo, SP</t>
+          <t>r campos sales, 401, 401 - madalena, Sao Paulo, SP</t>
         </is>
       </c>
       <c r="K37" t="b">
@@ -2665,12 +2537,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>r campos sales, 401</t>
+          <t>r dom manoel da costa, 405, blocoa apto 402</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>401</t>
+          <t>405</t>
         </is>
       </c>
       <c r="D38" t="inlineStr"/>
@@ -2679,23 +2551,23 @@
           <t>madalena</t>
         </is>
       </c>
-      <c r="F38" t="n">
-        <v>1</v>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>AT202602111F7T4</t>
-        </is>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>AT202602111F7T4</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>1</v>
       </c>
       <c r="H38" t="n">
-        <v>-23.54820035619067</v>
+        <v>-23.54507807958593</v>
       </c>
       <c r="I38" t="n">
-        <v>-46.63223815613947</v>
+        <v>-46.64059010135792</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>r campos sales, 401, 401 - madalena, Sao Paulo, SP</t>
+          <t>r dom manoel da costa, 405, blocoa apto 402, 405 - madalena, Sao Paulo, SP</t>
         </is>
       </c>
       <c r="K38" t="b">
@@ -2708,12 +2580,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>r manoel bernardes, 320, bloco c casa 3 interfonar 3</t>
+          <t>r henry koster, 37, casa</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>37</t>
         </is>
       </c>
       <c r="D39" t="inlineStr"/>
@@ -2722,23 +2594,23 @@
           <t>madalena</t>
         </is>
       </c>
-      <c r="F39" t="n">
-        <v>1</v>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>AT202602111F7T4</t>
-        </is>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>AT202602111F7T4</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>1</v>
       </c>
       <c r="H39" t="n">
-        <v>-23.54668428462863</v>
+        <v>-23.5450450862424</v>
       </c>
       <c r="I39" t="n">
-        <v>-46.63876999618305</v>
+        <v>-46.63043477611496</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>r manoel bernardes, 320, bloco c casa 3 interfonar 3, 320 - madalena, Sao Paulo, SP</t>
+          <t>r henry koster, 37, casa, 37 - madalena, Sao Paulo, SP</t>
         </is>
       </c>
       <c r="K39" t="b">
@@ -2751,12 +2623,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>r manoel bernardes, 282, apt. 501</t>
+          <t>r dom manoel da costa, 305, apartamento 1203</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>282</t>
+          <t>305</t>
         </is>
       </c>
       <c r="D40" t="inlineStr"/>
@@ -2765,23 +2637,23 @@
           <t>madalena</t>
         </is>
       </c>
-      <c r="F40" t="n">
-        <v>1</v>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>AT202602111F7T4</t>
-        </is>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>AT202602111F7T4</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>1</v>
       </c>
       <c r="H40" t="n">
-        <v>-23.54665977606892</v>
+        <v>-23.54490852966114</v>
       </c>
       <c r="I40" t="n">
-        <v>-46.63638758417623</v>
+        <v>-46.64049901556599</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>r manoel bernardes, 282, apt. 501, 282 - madalena, Sao Paulo, SP</t>
+          <t>r dom manoel da costa, 305, apartamento 1203, 305 - madalena, Sao Paulo, SP</t>
         </is>
       </c>
       <c r="K40" t="b">
@@ -2794,12 +2666,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>r estácio de sá, 54, casa proximo a padaria</t>
+          <t>r campos sales, 544</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>544</t>
         </is>
       </c>
       <c r="D41" t="inlineStr"/>
@@ -2808,23 +2680,23 @@
           <t>madalena</t>
         </is>
       </c>
-      <c r="F41" t="n">
-        <v>1</v>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>AT202602111F7T4</t>
-        </is>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>AT202602111F7T4</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>1</v>
       </c>
       <c r="H41" t="n">
-        <v>-23.54655418967713</v>
+        <v>-23.54479596939064</v>
       </c>
       <c r="I41" t="n">
-        <v>-46.63428204345978</v>
+        <v>-46.62430123302579</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>r estácio de sá, 54, casa proximo a padaria, 54 - madalena, Sao Paulo, SP</t>
+          <t>r campos sales, 544, 544 - madalena, Sao Paulo, SP</t>
         </is>
       </c>
       <c r="K41" t="b">
@@ -2837,12 +2709,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>r dom manoel da costa, 305, apartamento 1203</t>
+          <t>r dom manoel da costa, 321, apto 1101</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>305</t>
+          <t>321</t>
         </is>
       </c>
       <c r="D42" t="inlineStr"/>
@@ -2851,23 +2723,23 @@
           <t>madalena</t>
         </is>
       </c>
-      <c r="F42" t="n">
-        <v>1</v>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>AT202602111F7T4</t>
-        </is>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>AT202602111F7T4</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>1</v>
       </c>
       <c r="H42" t="n">
-        <v>-23.54623687126597</v>
+        <v>-23.54461063271304</v>
       </c>
       <c r="I42" t="n">
-        <v>-46.63442637741221</v>
+        <v>-46.63413604132139</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>r dom manoel da costa, 305, apartamento 1203, 305 - madalena, Sao Paulo, SP</t>
+          <t>r dom manoel da costa, 321, apto 1101, 321 - madalena, Sao Paulo, SP</t>
         </is>
       </c>
       <c r="K42" t="b">
@@ -2880,12 +2752,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>r padre landim, 292, apto 102</t>
+          <t>r graciliano cardoso, 40</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>292</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D43" t="inlineStr"/>
@@ -2894,23 +2766,23 @@
           <t>madalena</t>
         </is>
       </c>
-      <c r="F43" t="n">
-        <v>1</v>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>AT202602111F7T4</t>
-        </is>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>AT202602111F7T4</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>-23.54619761304706</v>
+        <v>-23.5439407007062</v>
       </c>
       <c r="I43" t="n">
-        <v>-46.62853789883002</v>
+        <v>-46.63634017134842</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>r padre landim, 292, apto 102, 292 - madalena, Sao Paulo, SP</t>
+          <t>r graciliano cardoso, 40, 40 - madalena, Sao Paulo, SP</t>
         </is>
       </c>
       <c r="K43" t="b">
@@ -2923,12 +2795,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>r campos sales, 544</t>
+          <t>r manoel bernardes, 320, bloco i; casa 11</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>544</t>
+          <t>320</t>
         </is>
       </c>
       <c r="D44" t="inlineStr"/>
@@ -2937,23 +2809,23 @@
           <t>madalena</t>
         </is>
       </c>
-      <c r="F44" t="n">
-        <v>1</v>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>AT202602111F7T4</t>
-        </is>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>AT202602111F7T4</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>1</v>
       </c>
       <c r="H44" t="n">
-        <v>-23.54611693966945</v>
+        <v>-23.54313062041993</v>
       </c>
       <c r="I44" t="n">
-        <v>-46.64016705685699</v>
+        <v>-46.63868064031794</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>r campos sales, 544, 544 - madalena, Sao Paulo, SP</t>
+          <t>r manoel bernardes, 320, bloco i; casa 11, 320 - madalena, Sao Paulo, SP</t>
         </is>
       </c>
       <c r="K44" t="b">
@@ -2966,12 +2838,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>r henry koster, 40, rua em frente a gráfica rio</t>
+          <t>r dom manoel da costa, 405, apt403 bloco b</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>405</t>
         </is>
       </c>
       <c r="D45" t="inlineStr"/>
@@ -2980,23 +2852,23 @@
           <t>madalena</t>
         </is>
       </c>
-      <c r="F45" t="n">
-        <v>1</v>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>AT202602111F7T4</t>
-        </is>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>AT202602111F7T4</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>1</v>
       </c>
       <c r="H45" t="n">
-        <v>-23.54552955739349</v>
+        <v>-23.54310097458987</v>
       </c>
       <c r="I45" t="n">
-        <v>-46.62820976925831</v>
+        <v>-46.63955872569412</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>r henry koster, 40, rua em frente a gráfica rio, 40 - madalena, Sao Paulo, SP</t>
+          <t>r dom manoel da costa, 405, apt403 bloco b, 405 - madalena, Sao Paulo, SP</t>
         </is>
       </c>
       <c r="K45" t="b">
@@ -3009,12 +2881,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>r visconde do uruguai, 84, casa térreo</t>
+          <t>r dom manoel da costa, 321, apto 401 edf.morada colonial</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>321</t>
         </is>
       </c>
       <c r="D46" t="inlineStr"/>
@@ -3023,23 +2895,23 @@
           <t>madalena</t>
         </is>
       </c>
-      <c r="F46" t="n">
-        <v>1</v>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>AT202602111F7T4</t>
-        </is>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>AT202602111F7T4</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>1</v>
       </c>
       <c r="H46" t="n">
-        <v>-23.54538838048215</v>
+        <v>-23.54305260252764</v>
       </c>
       <c r="I46" t="n">
-        <v>-46.63376250575233</v>
+        <v>-46.63970296817659</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>r visconde do uruguai, 84, casa térreo, 84 - madalena, Sao Paulo, SP</t>
+          <t>r dom manoel da costa, 321, apto 401 edf.morada colonial, 321 - madalena, Sao Paulo, SP</t>
         </is>
       </c>
       <c r="K46" t="b">
@@ -3052,12 +2924,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>r do brazão, 170</t>
+          <t>r visconde do uruguai, 441</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>441</t>
         </is>
       </c>
       <c r="D47" t="inlineStr"/>
@@ -3066,23 +2938,23 @@
           <t>madalena</t>
         </is>
       </c>
-      <c r="F47" t="n">
-        <v>1</v>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>AT202602111F7T4</t>
-        </is>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>AT202602111F7T4</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>1</v>
       </c>
       <c r="H47" t="n">
-        <v>-23.54524345320579</v>
+        <v>-23.54280968776424</v>
       </c>
       <c r="I47" t="n">
-        <v>-46.63967536955158</v>
+        <v>-46.62537428821387</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>r do brazão, 170, 170 - madalena, Sao Paulo, SP</t>
+          <t>r visconde do uruguai, 441, 441 - madalena, Sao Paulo, SP</t>
         </is>
       </c>
       <c r="K47" t="b">
@@ -3095,12 +2967,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>tv visconde do uruguai, 153, casa</t>
+          <t>r graciliano cardoso, 56, ao lado de luis da coxinha</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>56</t>
         </is>
       </c>
       <c r="D48" t="inlineStr"/>
@@ -3109,23 +2981,23 @@
           <t>madalena</t>
         </is>
       </c>
-      <c r="F48" t="n">
-        <v>1</v>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>AT202602111F7T4</t>
-        </is>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>AT202602111F7T4</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>1</v>
       </c>
       <c r="H48" t="n">
-        <v>-23.54490664735529</v>
+        <v>-23.54262197087744</v>
       </c>
       <c r="I48" t="n">
-        <v>-46.63830030189926</v>
+        <v>-46.62430648583275</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>tv visconde do uruguai, 153, casa, 153 - madalena, Sao Paulo, SP</t>
+          <t>r graciliano cardoso, 56, ao lado de luis da coxinha, 56 - madalena, Sao Paulo, SP</t>
         </is>
       </c>
       <c r="K48" t="b">
@@ -3138,12 +3010,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>r fagundes varela, 148, 1° andar janela bem grande</t>
+          <t>r padre landim, 302, apt 804</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>302</t>
         </is>
       </c>
       <c r="D49" t="inlineStr"/>
@@ -3152,23 +3024,23 @@
           <t>madalena</t>
         </is>
       </c>
-      <c r="F49" t="n">
-        <v>1</v>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>AT202602111F7T4</t>
-        </is>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>AT202602111F7T4</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>1</v>
       </c>
       <c r="H49" t="n">
-        <v>-23.54489807893859</v>
+        <v>-23.54256267623235</v>
       </c>
       <c r="I49" t="n">
-        <v>-46.62352099228112</v>
+        <v>-46.64112555334905</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>r fagundes varela, 148, 1° andar janela bem grande, 148 - madalena, Sao Paulo, SP</t>
+          <t>r padre landim, 302, apt 804, 302 - madalena, Sao Paulo, SP</t>
         </is>
       </c>
       <c r="K49" t="b">
@@ -3195,19 +3067,19 @@
           <t>madalena</t>
         </is>
       </c>
-      <c r="F50" t="n">
-        <v>1</v>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>AT202602111F7T4</t>
-        </is>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>AT202602111F7T4</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>1</v>
       </c>
       <c r="H50" t="n">
-        <v>-23.54472377658018</v>
+        <v>-23.54255741891993</v>
       </c>
       <c r="I50" t="n">
-        <v>-46.63527291291769</v>
+        <v>-46.63254165416463</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -3224,12 +3096,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>r dom manoel da costa, 321, apto 401 edf.morada colonial</t>
+          <t>r padre landim, 292, edf. maria faria apto 904 -b</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>292</t>
         </is>
       </c>
       <c r="D51" t="inlineStr"/>
@@ -3238,23 +3110,23 @@
           <t>madalena</t>
         </is>
       </c>
-      <c r="F51" t="n">
-        <v>1</v>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>AT202602111F7T4</t>
-        </is>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>AT202602111F7T4</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>1</v>
       </c>
       <c r="H51" t="n">
-        <v>-23.54470861650782</v>
+        <v>-23.54213414879312</v>
       </c>
       <c r="I51" t="n">
-        <v>-46.62933150159795</v>
+        <v>-46.6415997513824</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>r dom manoel da costa, 321, apto 401 edf.morada colonial, 321 - madalena, Sao Paulo, SP</t>
+          <t>r padre landim, 292, edf. maria faria apto 904 -b, 292 - madalena, Sao Paulo, SP</t>
         </is>
       </c>
       <c r="K51" t="b">
@@ -3267,12 +3139,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>r dom manoel da costa, 405, bloco b</t>
+          <t>tv visconde do uruguai, 153, casa</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>405</t>
+          <t>153</t>
         </is>
       </c>
       <c r="D52" t="inlineStr"/>
@@ -3281,23 +3153,23 @@
           <t>madalena</t>
         </is>
       </c>
-      <c r="F52" t="n">
-        <v>1</v>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>AT202602111F7T4</t>
-        </is>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>AT202602111F7T4</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>1</v>
       </c>
       <c r="H52" t="n">
-        <v>-23.54460278313408</v>
+        <v>-23.54211600431566</v>
       </c>
       <c r="I52" t="n">
-        <v>-46.62829424149432</v>
+        <v>-46.63090611784131</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>r dom manoel da costa, 405, bloco b, 405 - madalena, Sao Paulo, SP</t>
+          <t>tv visconde do uruguai, 153, casa, 153 - madalena, Sao Paulo, SP</t>
         </is>
       </c>
       <c r="K52" t="b">
@@ -3310,12 +3182,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>r caratinga, 105, apto 03</t>
+          <t>r fagundes varela, 148, 1° andar janela bem grande</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>148</t>
         </is>
       </c>
       <c r="D53" t="inlineStr"/>
@@ -3324,23 +3196,23 @@
           <t>madalena</t>
         </is>
       </c>
-      <c r="F53" t="n">
-        <v>1</v>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>AT202602111F7T4</t>
-        </is>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>AT202602111F7T4</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>1</v>
       </c>
       <c r="H53" t="n">
-        <v>-23.5427275976165</v>
+        <v>-23.54159529752843</v>
       </c>
       <c r="I53" t="n">
-        <v>-46.62496502750406</v>
+        <v>-46.62932213065046</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>r caratinga, 105, apto 03, 105 - madalena, Sao Paulo, SP</t>
+          <t>r fagundes varela, 148, 1° andar janela bem grande, 148 - madalena, Sao Paulo, SP</t>
         </is>
       </c>
       <c r="K53" t="b">
@@ -3353,12 +3225,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>r manoel bernardes, 320, bloco i; casa 11</t>
+          <t>r visconde do uruguai, 68, apto 201</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>68</t>
         </is>
       </c>
       <c r="D54" t="inlineStr"/>
@@ -3367,23 +3239,23 @@
           <t>madalena</t>
         </is>
       </c>
-      <c r="F54" t="n">
-        <v>1</v>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>AT202602111F7T4</t>
-        </is>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>AT202602111F7T4</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>1</v>
       </c>
       <c r="H54" t="n">
-        <v>-23.54243480658042</v>
+        <v>-23.5412263686842</v>
       </c>
       <c r="I54" t="n">
-        <v>-46.62486556207445</v>
+        <v>-46.64107387458149</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>r manoel bernardes, 320, bloco i; casa 11, 320 - madalena, Sao Paulo, SP</t>
+          <t>r visconde do uruguai, 68, apto 201, 68 - madalena, Sao Paulo, SP</t>
         </is>
       </c>
       <c r="K54" t="b">
@@ -3410,19 +3282,19 @@
           <t>madalena</t>
         </is>
       </c>
-      <c r="F55" t="n">
-        <v>1</v>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>AT202602111F7T4</t>
-        </is>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>AT202602111F7T4</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>1</v>
       </c>
       <c r="H55" t="n">
-        <v>-23.5417624762328</v>
+        <v>-23.54068990442401</v>
       </c>
       <c r="I55" t="n">
-        <v>-46.6269359973628</v>
+        <v>-46.6398870622824</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -3439,12 +3311,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>r dom manoel da costa, 125, apt 1204 vitória</t>
+          <t>r caratinga, 169</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>169</t>
         </is>
       </c>
       <c r="D56" t="inlineStr"/>
@@ -3453,23 +3325,23 @@
           <t>madalena</t>
         </is>
       </c>
-      <c r="F56" t="n">
-        <v>2</v>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>AT202602111F7T4, AT202602111F7T4</t>
-        </is>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>AT202602111F7T4</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>1</v>
       </c>
       <c r="H56" t="n">
-        <v>-23.54106285316603</v>
+        <v>-23.54062750105943</v>
       </c>
       <c r="I56" t="n">
-        <v>-46.63068943522681</v>
+        <v>-46.63355502322051</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>r dom manoel da costa, 125, apt 1204 vitória, 125 - madalena, Sao Paulo, SP</t>
+          <t>r caratinga, 169, 169 - madalena, Sao Paulo, SP</t>
         </is>
       </c>
       <c r="K56" t="b">
@@ -3482,12 +3354,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>r visconde do uruguai, 68, apto 201</t>
+          <t>r canguaretama, 39</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>39</t>
         </is>
       </c>
       <c r="D57" t="inlineStr"/>
@@ -3496,26 +3368,201 @@
           <t>madalena</t>
         </is>
       </c>
-      <c r="F57" t="n">
-        <v>1</v>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>AT202602111F7T4</t>
-        </is>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>AT202602111F7T4</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>1</v>
       </c>
       <c r="H57" t="n">
-        <v>-23.54102581870194</v>
+        <v>-23.54058018186099</v>
       </c>
       <c r="I57" t="n">
-        <v>-46.63298949368028</v>
+        <v>-46.62433589635468</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>r visconde do uruguai, 68, apto 201, 68 - madalena, Sao Paulo, SP</t>
+          <t>r canguaretama, 39, 39 - madalena, Sao Paulo, SP</t>
         </is>
       </c>
       <c r="K57" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="46" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="13" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="34" customWidth="1" min="6" max="6"/>
+    <col width="20" customWidth="1" min="7" max="7"/>
+    <col width="21" customWidth="1" min="8" max="8"/>
+    <col width="20" customWidth="1" min="9" max="9"/>
+    <col width="50" customWidth="1" min="10" max="10"/>
+    <col width="15" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ordem_rota</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>endereco</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>numero</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>complemento</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>bairro</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>ids_agrupados</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>quantidade_pacotes</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>latitude</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>longitude</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>endereco_formatado</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>geocodificado</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>r conselheiro theodoro, 213, apartamento 903</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>213</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>zumbi</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>AT202602111F7T4</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-23.55914531287383</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-46.6324145051536</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>r conselheiro theodoro, 213, apartamento 903, 213 - zumbi, Sao Paulo, SP</t>
+        </is>
+      </c>
+      <c r="K2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>r joao da mata, 75</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>zumbi</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>AT202602111F7T4, AT202602111F7T4</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>2</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-23.55800273424433</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-46.62829524924186</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>r joao da mata, 75, 75 - zumbi, Sao Paulo, SP</t>
+        </is>
+      </c>
+      <c r="K3" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3543,10 +3590,10 @@
     <col width="8" customWidth="1" min="3" max="3"/>
     <col width="13" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
-    <col width="20" customWidth="1" min="6" max="6"/>
-    <col width="17" customWidth="1" min="7" max="7"/>
-    <col width="20" customWidth="1" min="8" max="8"/>
-    <col width="21" customWidth="1" min="9" max="9"/>
+    <col width="17" customWidth="1" min="6" max="6"/>
+    <col width="20" customWidth="1" min="7" max="7"/>
+    <col width="21" customWidth="1" min="8" max="8"/>
+    <col width="20" customWidth="1" min="9" max="9"/>
     <col width="50" customWidth="1" min="10" max="10"/>
     <col width="15" customWidth="1" min="11" max="11"/>
   </cols>
@@ -3579,12 +3626,12 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>ids_agrupados</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>quantidade_pacotes</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ids_agrupados</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -3614,12 +3661,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>r dom manoel da costa, 206, casa. atrás da igreja da torre</t>
+          <t>r dom manoel da costa, 444, em frente ao centro espírita</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>444</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -3628,23 +3675,23 @@
           <t>torre</t>
         </is>
       </c>
-      <c r="F2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>AT202602111F7T4</t>
-        </is>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>AT202602111F7T4</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>-23.55255121791779</v>
+        <v>-23.55718811171698</v>
       </c>
       <c r="I2" t="n">
-        <v>-46.64198455328469</v>
+        <v>-46.64280808900681</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>r dom manoel da costa, 206, casa. atrás da igreja da torre, 206 - torre, Sao Paulo, SP</t>
+          <t>r dom manoel da costa, 444, em frente ao centro espírita, 444 - torre, Sao Paulo, SP</t>
         </is>
       </c>
       <c r="K2" t="b">
@@ -3657,12 +3704,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>r dom manoel da costa, 444, em frente ao centro espírita</t>
+          <t>r dom manoel da costa, 206, casa. atrás da igreja da torre</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>444</t>
+          <t>206</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -3671,23 +3718,23 @@
           <t>torre</t>
         </is>
       </c>
-      <c r="F3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>AT202602111F7T4</t>
-        </is>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>AT202602111F7T4</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>-23.54548385988476</v>
+        <v>-23.54351338738719</v>
       </c>
       <c r="I3" t="n">
-        <v>-46.62605365006252</v>
+        <v>-46.62489586734057</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>r dom manoel da costa, 444, em frente ao centro espírita, 444 - torre, Sao Paulo, SP</t>
+          <t>r dom manoel da costa, 206, casa. atrás da igreja da torre, 206 - torre, Sao Paulo, SP</t>
         </is>
       </c>
       <c r="K3" t="b">
@@ -3705,7 +3752,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3714,13 +3761,13 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="12" customWidth="1" min="1" max="1"/>
-    <col width="46" customWidth="1" min="2" max="2"/>
+    <col width="50" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
     <col width="13" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
-    <col width="20" customWidth="1" min="6" max="6"/>
-    <col width="34" customWidth="1" min="7" max="7"/>
-    <col width="21" customWidth="1" min="8" max="8"/>
+    <col width="17" customWidth="1" min="6" max="6"/>
+    <col width="20" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
     <col width="20" customWidth="1" min="9" max="9"/>
     <col width="50" customWidth="1" min="10" max="10"/>
     <col width="15" customWidth="1" min="11" max="11"/>
@@ -3754,12 +3801,12 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>ids_agrupados</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>quantidade_pacotes</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ids_agrupados</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -3789,83 +3836,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>r conselheiro theodoro, 213, apartamento 903</t>
+          <t>r doutora amariles barbosa de aguiar, 168, a loja de roupa de joelma, recife, pernambuco, 50610390</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>168</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>zumbi</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>AT202602111F7T4</t>
-        </is>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>AT202602111F7T4</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>-23.55939174317134</v>
+        <v>-23.55340214392367</v>
       </c>
       <c r="I2" t="n">
-        <v>-46.62998376908042</v>
+        <v>-46.63421911458598</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>r conselheiro theodoro, 213, apartamento 903, 213 - zumbi, Sao Paulo, SP</t>
+          <t>r doutora amariles barbosa de aguiar, 168, a loja de roupa de joelma, recife, pernambuco, 50610390, 168 - , Sao Paulo, SP</t>
         </is>
       </c>
       <c r="K2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>r joao da mata, 75</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>zumbi</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>2</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>AT202602111F7T4, AT202602111F7T4</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>-23.55032254807681</v>
-      </c>
-      <c r="I3" t="n">
-        <v>-46.63442853074703</v>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>r joao da mata, 75, 75 - zumbi, Sao Paulo, SP</t>
-        </is>
-      </c>
-      <c r="K3" t="b">
         <v>1</v>
       </c>
     </row>
